--- a/服务器/知音卡片礼盒App服务器接口需求档.xlsx
+++ b/服务器/知音卡片礼盒App服务器接口需求档.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20151215" sheetId="1" r:id="rId1"/>
     <sheet name="20151215-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="20151216" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1167,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
